--- a/OnBoard/output/trust/catch/Catch_Trust_23.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_23.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1230,6 +1230,9 @@
       <c r="H21">
         <v>4</v>
       </c>
+      <c r="I21">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1268,6 +1271,9 @@
       <c r="H22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1306,6 +1312,9 @@
       <c r="H23">
         <v>3</v>
       </c>
+      <c r="I23">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1344,6 +1353,9 @@
       <c r="H24">
         <v>3</v>
       </c>
+      <c r="I24">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1382,6 +1394,9 @@
       <c r="H25">
         <v>6</v>
       </c>
+      <c r="I25">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1420,6 +1435,9 @@
       <c r="H26">
         <v>9</v>
       </c>
+      <c r="I26">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1458,6 +1476,9 @@
       <c r="H27">
         <v>1</v>
       </c>
+      <c r="I27">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1494,7 +1515,10 @@
         <v>1.097</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <v>66.00500000000001</v>
       </c>
     </row>
     <row r="29">
@@ -1534,6 +1558,9 @@
       <c r="H29">
         <v>2</v>
       </c>
+      <c r="I29">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1570,7 +1597,10 @@
         <v>3.617</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <v>66.00500000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1610,6 +1640,9 @@
       <c r="H31">
         <v>1</v>
       </c>
+      <c r="I31">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1648,6 +1681,9 @@
       <c r="H32">
         <v>5</v>
       </c>
+      <c r="I32">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1686,6 +1722,9 @@
       <c r="H33">
         <v>2</v>
       </c>
+      <c r="I33">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1724,6 +1763,9 @@
       <c r="H34">
         <v>3</v>
       </c>
+      <c r="I34">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1762,6 +1804,9 @@
       <c r="H35">
         <v>13</v>
       </c>
+      <c r="I35">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1800,6 +1845,9 @@
       <c r="H36">
         <v>1</v>
       </c>
+      <c r="I36">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1838,6 +1886,9 @@
       <c r="H37">
         <v>10</v>
       </c>
+      <c r="I37">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1876,6 +1927,9 @@
       <c r="H38">
         <v>2</v>
       </c>
+      <c r="I38">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1914,6 +1968,9 @@
       <c r="H39">
         <v>1</v>
       </c>
+      <c r="I39">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1952,6 +2009,9 @@
       <c r="H40">
         <v>1</v>
       </c>
+      <c r="I40">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1990,6 +2050,9 @@
       <c r="H41">
         <v>1</v>
       </c>
+      <c r="I41">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2028,6 +2091,9 @@
       <c r="H42">
         <v>53</v>
       </c>
+      <c r="I42">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2066,6 +2132,9 @@
       <c r="H43">
         <v>9</v>
       </c>
+      <c r="I43">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2104,6 +2173,9 @@
       <c r="H44">
         <v>1</v>
       </c>
+      <c r="I44">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2142,6 +2214,9 @@
       <c r="H45">
         <v>5</v>
       </c>
+      <c r="I45">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2180,6 +2255,9 @@
       <c r="H46">
         <v>17</v>
       </c>
+      <c r="I46">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2218,6 +2296,9 @@
       <c r="H47">
         <v>30</v>
       </c>
+      <c r="I47">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2256,6 +2337,9 @@
       <c r="H48">
         <v>13</v>
       </c>
+      <c r="I48">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2294,6 +2378,9 @@
       <c r="H49">
         <v>4</v>
       </c>
+      <c r="I49">
+        <v>66.00500000000001</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2330,7 +2417,10 @@
         <v>0.705</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="I50">
+        <v>66.00500000000001</v>
       </c>
     </row>
     <row r="51">
@@ -2368,7 +2458,10 @@
         <v>0.078</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="I51">
+        <v>66.00500000000001</v>
       </c>
     </row>
     <row r="52">
@@ -2968,13 +3061,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Scyliorhinus canicula</t>
+          <t>Sepia elegans</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>SCYOCAN</t>
-        </is>
+          <t>SEPIELE</t>
+        </is>
+      </c>
+      <c r="G66">
+        <v>0.018</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -3003,19 +3102,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sepia elegans</t>
+          <t>Serranus hepatus</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>SEPIELE</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="G67">
-        <v>0.018</v>
+        <v>0.064</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -3044,19 +3143,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Serranus hepatus</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G68">
-        <v>0.064</v>
+        <v>0.459</v>
       </c>
       <c r="H68">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -3085,19 +3184,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Trachinus draco</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="G69">
-        <v>0.459</v>
+        <v>0.053</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -3126,62 +3225,21 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Trachinus draco</t>
+          <t>Trisopterus minutus capelanus</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="G70">
-        <v>0.053</v>
+        <v>0.022</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Trisopterus minutus capelanus</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>TRISCAP</t>
-        </is>
-      </c>
-      <c r="G71">
-        <v>0.022</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
         <v>1</v>
       </c>
     </row>
